--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2582724.531471204</v>
+        <v>2578100.123555652</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11362666.28527831</v>
+        <v>11362666.28527832</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33.93991247395533</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -709,16 +709,16 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>10.58695345037629</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3.710907708664852</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>29.89427490705984</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="S3" t="n">
-        <v>29.89427490705984</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="Y3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.44627538834367</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>27.0180752910075</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.85612676368803</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,35 +995,35 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="F7" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>18.96187038700693</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>126.9312926994359</v>
       </c>
       <c r="F8" t="n">
-        <v>175.331806351613</v>
+        <v>175.3318063516156</v>
       </c>
       <c r="G8" t="n">
-        <v>175.331806351613</v>
+        <v>175.3318063516156</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.570932793334</v>
+        <v>150.570932793333</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589335143</v>
+        <v>52.26183589334971</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>126.9312926994282</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>48.67171349314415</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>154.4322550345007</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>175.331806351613</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>175.331806351613</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.331806351613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>175.3318063516156</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.0301607160526</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.489621137986</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068496</v>
+        <v>44.08089719068408</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>12.84456566386723</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992557</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>175.331806351613</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>159.0313165317334</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>75.08886905994719</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>145.0891016767036</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>99.65140663107579</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.97607332171654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H28" t="n">
-        <v>72.80978492054791</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833819</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>104.1233804225859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.594095449515125</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>29.959001240238</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881302</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189018</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>63.44577852554302</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63.44577852554302</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.44577852554302</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63.44577852554302</v>
+      </c>
+      <c r="F2" t="n">
         <v>56.50027777633954</v>
       </c>
-      <c r="C2" t="n">
-        <v>56.50027777633954</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.50027777633954</v>
-      </c>
-      <c r="E2" t="n">
-        <v>56.50027777633954</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.21753790365739</v>
-      </c>
       <c r="G2" t="n">
-        <v>6.853677899787311</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="H2" t="n">
-        <v>6.853677899787311</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="I2" t="n">
         <v>6.853677899787311</v>
@@ -4339,10 +4339,10 @@
         <v>68.55862319738975</v>
       </c>
       <c r="M2" t="n">
-        <v>102.1591365466055</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="N2" t="n">
-        <v>102.1591365466055</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="O2" t="n">
         <v>102.1591365466055</v>
@@ -4357,25 +4357,25 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>90.7830176490217</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T2" t="n">
-        <v>56.50027777633954</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U2" t="n">
-        <v>56.50027777633954</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V2" t="n">
-        <v>56.50027777633954</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="W2" t="n">
-        <v>56.50027777633954</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="X2" t="n">
-        <v>56.50027777633954</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.50027777633954</v>
+        <v>63.44577852554302</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>40.20652398783096</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L3" t="n">
-        <v>40.20652398783096</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="M3" t="n">
-        <v>40.20652398783096</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="N3" t="n">
-        <v>68.55862319738975</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="O3" t="n">
         <v>68.55862319738975</v>
@@ -4433,28 +4433,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="S3" t="n">
+        <v>105.5634126159629</v>
+      </c>
+      <c r="T3" t="n">
+        <v>105.5634126159629</v>
+      </c>
+      <c r="U3" t="n">
+        <v>105.5634126159629</v>
+      </c>
+      <c r="V3" t="n">
+        <v>105.5634126159629</v>
+      </c>
+      <c r="W3" t="n">
+        <v>105.5634126159629</v>
+      </c>
+      <c r="X3" t="n">
         <v>71.28067274328075</v>
       </c>
-      <c r="T3" t="n">
+      <c r="Y3" t="n">
         <v>36.99793287059858</v>
-      </c>
-      <c r="U3" t="n">
-        <v>36.99793287059858</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.715192997916426</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C4" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D4" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="E4" t="n">
-        <v>20.33943493601357</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="F4" t="n">
-        <v>20.33943493601357</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="G4" t="n">
-        <v>20.33943493601357</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="H4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4521,19 +4521,19 @@
         <v>101.4769100231392</v>
       </c>
       <c r="U4" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V4" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W4" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X4" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.33908537917064</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C5" t="n">
-        <v>25.33908537917064</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D5" t="n">
-        <v>25.33908537917064</v>
+        <v>48.89374731397731</v>
       </c>
       <c r="E5" t="n">
-        <v>25.33908537917064</v>
+        <v>48.89374731397731</v>
       </c>
       <c r="F5" t="n">
-        <v>18.39358462996717</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G5" t="n">
         <v>3.078485107422247</v>
@@ -4570,19 +4570,19 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
+        <v>3.078485107422247</v>
+      </c>
+      <c r="L5" t="n">
         <v>41.17473831177255</v>
       </c>
-      <c r="L5" t="n">
-        <v>79.27099151612285</v>
-      </c>
       <c r="M5" t="n">
-        <v>117.3672447204732</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N5" t="n">
-        <v>148.7634570536217</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="O5" t="n">
-        <v>148.7634570536217</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P5" t="n">
         <v>148.7634570536217</v>
@@ -4594,25 +4594,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U5" t="n">
         <v>76.18473245640914</v>
       </c>
       <c r="V5" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X5" t="n">
-        <v>25.33908537917064</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.33908537917064</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="6">
@@ -4625,22 +4625,22 @@
         <v>76.18473245640914</v>
       </c>
       <c r="C6" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="D6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
@@ -4655,13 +4655,13 @@
         <v>47.48135862876946</v>
       </c>
       <c r="M6" t="n">
-        <v>47.48135862876946</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="N6" t="n">
-        <v>85.57761183311976</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O6" t="n">
-        <v>85.57761183311976</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P6" t="n">
         <v>115.828002166762</v>
@@ -4670,16 +4670,16 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V6" t="n">
         <v>115.0544939137607</v>
@@ -4691,7 +4691,7 @@
         <v>115.0544939137607</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="C7" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="D7" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="E7" t="n">
         <v>115.0544939137607</v>
       </c>
-      <c r="C7" t="n">
-        <v>115.0544939137607</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>76.18473245640914</v>
       </c>
-      <c r="E7" t="n">
-        <v>37.31497099905754</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18.16156656773741</v>
-      </c>
       <c r="G7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="H7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4746,31 +4746,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="V7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="W7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="X7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>520.3240652117252</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="C8" t="n">
-        <v>520.3240652117252</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="D8" t="n">
-        <v>520.3240652117252</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="E8" t="n">
-        <v>520.3240652117252</v>
+        <v>520.3240652117295</v>
       </c>
       <c r="F8" t="n">
-        <v>343.2212305131261</v>
+        <v>343.2212305131278</v>
       </c>
       <c r="G8" t="n">
-        <v>166.118395814527</v>
+        <v>166.1183958145262</v>
       </c>
       <c r="H8" t="n">
-        <v>166.118395814527</v>
+        <v>166.1183958145262</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812904</v>
+        <v>14.02654450812925</v>
       </c>
       <c r="J8" t="n">
-        <v>14.02654450812904</v>
+        <v>132.759350783734</v>
       </c>
       <c r="K8" t="n">
-        <v>14.02654450812904</v>
+        <v>132.759350783734</v>
       </c>
       <c r="L8" t="n">
-        <v>150.57373381428</v>
+        <v>142.1083187088447</v>
       </c>
       <c r="M8" t="n">
-        <v>324.1522221023769</v>
+        <v>184.1802843229007</v>
       </c>
       <c r="N8" t="n">
-        <v>371.5187644837823</v>
+        <v>231.5468267043111</v>
       </c>
       <c r="O8" t="n">
-        <v>545.0972527718792</v>
+        <v>371.5187644837872</v>
       </c>
       <c r="P8" t="n">
-        <v>545.0972527718792</v>
+        <v>545.0972527718867</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.327225406452</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808445</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808445</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="T8" t="n">
-        <v>648.5374921808445</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="U8" t="n">
-        <v>648.5374921808445</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="V8" t="n">
-        <v>520.3240652117252</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="W8" t="n">
-        <v>520.3240652117252</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="X8" t="n">
-        <v>520.3240652117252</v>
+        <v>648.5374921808567</v>
       </c>
       <c r="Y8" t="n">
-        <v>520.3240652117252</v>
+        <v>648.5374921808567</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.02654450812904</v>
+        <v>533.1118883863944</v>
       </c>
       <c r="C9" t="n">
-        <v>14.02654450812904</v>
+        <v>358.6588591052674</v>
       </c>
       <c r="D9" t="n">
-        <v>14.02654450812904</v>
+        <v>209.7244494440162</v>
       </c>
       <c r="E9" t="n">
-        <v>14.02654450812904</v>
+        <v>160.5611024812443</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812904</v>
+        <v>14.02654450812925</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812904</v>
+        <v>14.02654450812925</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812904</v>
+        <v>14.02654450812925</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812904</v>
+        <v>14.02654450812925</v>
       </c>
       <c r="J9" t="n">
-        <v>91.04961084172157</v>
+        <v>14.02654450812925</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6280991298185</v>
+        <v>187.6050327962287</v>
       </c>
       <c r="L9" t="n">
-        <v>438.2065874179153</v>
+        <v>229.1473663241527</v>
       </c>
       <c r="M9" t="n">
-        <v>506.0413993919798</v>
+        <v>296.9821782982209</v>
       </c>
       <c r="N9" t="n">
-        <v>622.1320351939678</v>
+        <v>381.0210208122073</v>
       </c>
       <c r="O9" t="n">
-        <v>676.7913625750156</v>
+        <v>527.748737118363</v>
       </c>
       <c r="P9" t="n">
-        <v>701.327225406452</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.327225406452</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="R9" t="n">
-        <v>701.327225406452</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="S9" t="n">
-        <v>701.327225406452</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="T9" t="n">
-        <v>701.327225406452</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="U9" t="n">
-        <v>545.3350486039261</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="V9" t="n">
-        <v>545.3350486039261</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="W9" t="n">
-        <v>368.2322139053271</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="X9" t="n">
-        <v>191.1293792067281</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.02654450812904</v>
+        <v>701.3272254064625</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.1589262321064</v>
+        <v>511.2500819564798</v>
       </c>
       <c r="C10" t="n">
-        <v>216.1589262321064</v>
+        <v>342.3138990285729</v>
       </c>
       <c r="D10" t="n">
-        <v>216.1589262321064</v>
+        <v>342.3138990285729</v>
       </c>
       <c r="E10" t="n">
-        <v>216.1589262321064</v>
+        <v>194.4008054461798</v>
       </c>
       <c r="F10" t="n">
-        <v>216.1589262321064</v>
+        <v>194.4008054461798</v>
       </c>
       <c r="G10" t="n">
-        <v>216.1589262321064</v>
+        <v>194.4008054461798</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5527032865987</v>
+        <v>194.4008054461798</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5527032865987</v>
+        <v>58.55270328659802</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812904</v>
+        <v>14.02654450812925</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288294</v>
+        <v>72.14931057288453</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707578</v>
+        <v>202.0528747707613</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882313</v>
+        <v>349.4070924882367</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831073</v>
+        <v>498.6921726831146</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189872</v>
+        <v>620.5648112189962</v>
       </c>
       <c r="P10" t="n">
-        <v>701.327225406452</v>
+        <v>701.3272254064625</v>
       </c>
       <c r="Q10" t="n">
-        <v>701.327225406452</v>
+        <v>688.3529166550815</v>
       </c>
       <c r="R10" t="n">
-        <v>553.8994543971029</v>
+        <v>688.3529166550815</v>
       </c>
       <c r="S10" t="n">
-        <v>553.8994543971029</v>
+        <v>688.3529166550815</v>
       </c>
       <c r="T10" t="n">
-        <v>553.8994543971029</v>
+        <v>688.3529166550815</v>
       </c>
       <c r="U10" t="n">
-        <v>376.7966196985038</v>
+        <v>688.3529166550815</v>
       </c>
       <c r="V10" t="n">
-        <v>216.1589262321064</v>
+        <v>688.3529166550815</v>
       </c>
       <c r="W10" t="n">
-        <v>216.1589262321064</v>
+        <v>688.3529166550815</v>
       </c>
       <c r="X10" t="n">
-        <v>216.1589262321064</v>
+        <v>688.3529166550815</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.1589262321064</v>
+        <v>688.3529166550815</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683283</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,28 +5293,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5427,13 +5427,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2420.62928111327</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2237.774446768175</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V16" t="n">
-        <v>1608.876909444017</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1319.459739407057</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,22 +5530,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349512</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5743,58 +5743,58 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154851</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E22" t="n">
-        <v>261.012762333092</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>276.5613528960944</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,58 +6217,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6369,19 +6369,19 @@
         <v>481.447947124485</v>
       </c>
       <c r="E28" t="n">
-        <v>481.447947124485</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F28" t="n">
-        <v>334.5579996265747</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3619003414546</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6487,25 +6487,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6530,40 +6530,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6603,31 +6603,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797183</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7022,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3047.140839595365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2878.204656667458</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3228.789304425605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7548,10 +7548,10 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908939</v>
@@ -7563,10 +7563,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,64 +7636,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.8463580632</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>253.7352816144805</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
         <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
         <v>251.8689757786171</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>163.7881088975641</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>127.8064787429921</v>
@@ -8069,10 +8069,10 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>147.1059453792048</v>
+        <v>151.0360642081934</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P3" t="n">
         <v>158.4618986107626</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>240.6620276789126</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
         <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>244.1059827132785</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
         <v>236.0050783192468</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,16 +8303,16 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N6" t="n">
-        <v>150.2310236677773</v>
+        <v>142.3059096569611</v>
       </c>
       <c r="O6" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1458699897895</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
         <v>168.8471891366353</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.16448762096019</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43379383386696</v>
+        <v>22.43379383386346</v>
       </c>
       <c r="L8" t="n">
-        <v>128.483051900045</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8348713879248</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>143.6230976987814</v>
+        <v>109.6770870840083</v>
       </c>
       <c r="P8" t="n">
-        <v>7.786846588836568</v>
+        <v>183.1186529404482</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>48.28995823576851</v>
       </c>
       <c r="K9" t="n">
-        <v>178.9227690890133</v>
+        <v>178.9227690890136</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3698532931071</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>32.37554877576305</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>92.99837265162077</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>150.548106521879</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.85618372286196</v>
+        <v>33.85618372286008</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>92.15795203868065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>40.30478226780143</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>107.0485416471244</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H28" t="n">
-        <v>67.48492792567598</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823098</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>147.0213775686972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>62.35543909864961</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="D43" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823151</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>812640.6503809319</v>
+        <v>812640.6503809313</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891426</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520051</v>
@@ -26371,10 +26371,10 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.4026003613</v>
+        <v>343539.402600368</v>
       </c>
       <c r="E3" t="n">
-        <v>1086298.01619273</v>
+        <v>1086298.016192723</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335421</v>
+        <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491112</v>
+        <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230371</v>
+        <v>34635.6912723042</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575375</v>
+        <v>248550.2087575368</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712369</v>
+        <v>305665.7657712351</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732024</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732031</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732021</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.31242673203</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731904</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26453,13 +26453,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673203</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732024</v>
+        <v>8117.312426732029</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426732026</v>
+        <v>8117.312426732029</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685939</v>
+        <v>52713.9356668597</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186829.7041525768</v>
+        <v>186829.7041525767</v>
       </c>
       <c r="C6" t="n">
-        <v>210643.8346116864</v>
+        <v>210643.8346116866</v>
       </c>
       <c r="D6" t="n">
-        <v>-45085.68814703095</v>
+        <v>-45085.68814703603</v>
       </c>
       <c r="E6" t="n">
-        <v>-549820.5786913637</v>
+        <v>-550167.9579457144</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470088</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470089</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.4375013657</v>
+        <v>536130.0582470092</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470088</v>
       </c>
       <c r="J6" t="n">
-        <v>527597.2630420309</v>
+        <v>527249.8837876735</v>
       </c>
       <c r="K6" t="n">
-        <v>535308.6904558745</v>
+        <v>534961.3112015181</v>
       </c>
       <c r="L6" t="n">
-        <v>501841.7462290625</v>
+        <v>501494.366974705</v>
       </c>
       <c r="M6" t="n">
-        <v>287927.2287438285</v>
+        <v>287579.8494894723</v>
       </c>
       <c r="N6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470087</v>
       </c>
       <c r="O6" t="n">
-        <v>536477.4375013656</v>
+        <v>536130.0582470086</v>
       </c>
       <c r="P6" t="n">
-        <v>536477.4375013658</v>
+        <v>536130.0582470088</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523541</v>
+        <v>386.5211853523609</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,19 +26795,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.331806351613</v>
+        <v>175.3318063516156</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332287</v>
+        <v>351.4999246332355</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893198</v>
+        <v>981.4543149893129</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088349</v>
+        <v>136.8507425088375</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480356</v>
+        <v>997.3764817480328</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395502</v>
+        <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822511</v>
+        <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088354</v>
+        <v>136.8507425088375</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480356</v>
+        <v>997.3764817480328</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088349</v>
+        <v>136.8507425088375</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480356</v>
+        <v>997.3764817480328</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.9361332677561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>172.9692497154156</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>196.3249052495366</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T2" t="n">
-        <v>188.7509478129442</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>324.04135076147</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>132.593271175912</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>63.14454955308224</v>
+        <v>67.19018711997774</v>
       </c>
       <c r="S3" t="n">
-        <v>140.8694464262256</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>166.0252945351195</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>198.8606746754699</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>171.8330727295221</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>171.742783303349</v>
       </c>
     </row>
     <row r="4">
@@ -27545,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>133.9876872582255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5267731158714</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>134.0095673419535</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>127.9182913733583</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
@@ -27563,7 +27563,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>252.3768532711237</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.6447408781395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>327.6649663296755</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>376.6808846845414</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27666,22 +27666,22 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>167.3307766836197</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>212.8533259460332</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>289.2711946273568</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>357.874973914781</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>128.0521198070892</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>134.2274351455376</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5509445319198</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>111.1750913606649</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27715,7 +27715,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>56.99978005760148</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27754,7 +27754,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>194.3195233066472</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.2016319345263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>110.1344091754343</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>107.9528988037911</v>
       </c>
       <c r="F7" t="n">
-        <v>126.4591776359243</v>
+        <v>106.9399841801532</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
@@ -27794,10 +27794,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>134.589418795024</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>50.4131925917203</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.39276904032837</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>254.9990773728258</v>
       </c>
       <c r="F8" t="n">
-        <v>231.5442393900984</v>
+        <v>231.5442393900958</v>
       </c>
       <c r="G8" t="n">
-        <v>238.4170771520553</v>
+        <v>238.4170771520527</v>
       </c>
       <c r="H8" t="n">
-        <v>323.5613947208333</v>
+        <v>323.5613947208331</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>173.6116212999468</v>
+        <v>173.6116212999461</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2938536289357</v>
+        <v>216.2938536289356</v>
       </c>
       <c r="U8" t="n">
         <v>251.2213445869191</v>
       </c>
       <c r="V8" t="n">
-        <v>200.8209657707067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>108.9733669622568</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.5121319720754</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2060135747428</v>
+        <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767942</v>
+        <v>60.77218657767891</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.5390237767193</v>
+        <v>48.53902377671839</v>
       </c>
       <c r="S9" t="n">
-        <v>156.2405558211282</v>
+        <v>156.2405558211279</v>
       </c>
       <c r="T9" t="n">
         <v>196.8136629463422</v>
       </c>
       <c r="U9" t="n">
-        <v>71.45443065232053</v>
+        <v>225.8866856868212</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>76.36317680930659</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>30.44117885186446</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.35088942569135</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>4.500173830321671</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>167.2939739422496</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.0301607160525</v>
       </c>
       <c r="I10" t="n">
-        <v>134.4896211379863</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348892</v>
+        <v>14.95277859962066</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>145.9534932992551</v>
       </c>
       <c r="S10" t="n">
-        <v>211.8696945563089</v>
+        <v>211.8696945563087</v>
       </c>
       <c r="T10" t="n">
-        <v>224.967475377206</v>
+        <v>224.9674753772059</v>
       </c>
       <c r="U10" t="n">
-        <v>110.9492045276301</v>
+        <v>286.2810108792431</v>
       </c>
       <c r="V10" t="n">
-        <v>93.10632679209459</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.523608934806492e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466749</v>
+        <v>1.553854011466776</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493385</v>
+        <v>15.91340739493413</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707189</v>
+        <v>59.90495677707295</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057261</v>
+        <v>131.8814169057284</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111136</v>
+        <v>197.6560572111171</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145392</v>
+        <v>245.2098169145435</v>
       </c>
       <c r="M8" t="n">
-        <v>272.843168190961</v>
+        <v>272.8431681909657</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010408</v>
+        <v>277.2580559010458</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745184</v>
+        <v>261.806920074523</v>
       </c>
       <c r="P8" t="n">
-        <v>223.446149166433</v>
+        <v>223.4461491664369</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.79875238078</v>
+        <v>167.798752380783</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779825</v>
+        <v>97.60728204779997</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629857</v>
+        <v>35.4084482862992</v>
       </c>
       <c r="T8" t="n">
-        <v>6.801995935195697</v>
+        <v>6.801995935195817</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173399</v>
+        <v>0.1243083209173421</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352521</v>
+        <v>0.8313851911352668</v>
       </c>
       <c r="H9" t="n">
-        <v>8.02943066175362</v>
+        <v>8.029430661753763</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373566</v>
+        <v>28.62444627373617</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089679</v>
+        <v>78.54766843089818</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369587</v>
+        <v>134.250476236961</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383801</v>
+        <v>180.5163328383833</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170329</v>
+        <v>210.6540460170366</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944268</v>
+        <v>216.2294317944306</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434826</v>
+        <v>197.807686243486</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440641</v>
+        <v>158.7581072440669</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631596</v>
+        <v>106.1255903631614</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592383</v>
+        <v>51.61881037592475</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270961</v>
+        <v>15.44261528270988</v>
       </c>
       <c r="T9" t="n">
-        <v>3.35106574847937</v>
+        <v>3.351065748479429</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05469639415363503</v>
+        <v>0.054696394153636</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.697005416209163</v>
+        <v>0.6970054162091752</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791386926</v>
+        <v>6.197011791387036</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927193</v>
+        <v>20.9608537892723</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598782</v>
+        <v>49.27828292598869</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775546</v>
+        <v>80.97935653775689</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516787</v>
+        <v>103.6256961516805</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972236</v>
+        <v>109.2587671972255</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186259</v>
+        <v>106.6608379186278</v>
       </c>
       <c r="O10" t="n">
-        <v>98.5185473747279</v>
+        <v>98.51854737472965</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406092</v>
+        <v>84.29963688406239</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820546</v>
+        <v>58.36469898820649</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791381</v>
+        <v>31.33989807791436</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066332</v>
+        <v>12.14690348066353</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075514</v>
+        <v>2.978114051075566</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777257</v>
+        <v>0.03801847724777324</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,10 +32317,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34707,13 +34707,13 @@
         <v>32.56860287904802</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>33.93991247395533</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32.56860287904802</v>
+      </c>
+      <c r="O3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>28.63848405005938</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>33.93991247395533</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>31.71334579105918</v>
+      </c>
+      <c r="O5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="N5" t="n">
-        <v>31.71334579105919</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
         <v>5.212927593424824</v>
@@ -35023,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N6" t="n">
-        <v>38.48106384277808</v>
+        <v>30.55594983196189</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.55594983196189</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>38.48106384277808</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>119.9321275511159</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>137.9264538445969</v>
+        <v>9.443401944556257</v>
       </c>
       <c r="M8" t="n">
-        <v>175.331806351613</v>
+        <v>42.49693496369301</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230444993</v>
+        <v>47.84499230445488</v>
       </c>
       <c r="O8" t="n">
-        <v>175.331806351613</v>
+        <v>141.3857957368446</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>175.3318063516156</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.8080531662352</v>
+        <v>157.8080531662382</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>77.80107710463894</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>175.331806351613</v>
+        <v>175.3318063516156</v>
       </c>
       <c r="L9" t="n">
-        <v>175.331806351613</v>
+        <v>41.9619530585091</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501461</v>
+        <v>68.52001209501833</v>
       </c>
       <c r="N9" t="n">
-        <v>117.2632684868566</v>
+        <v>84.88771971109733</v>
       </c>
       <c r="O9" t="n">
-        <v>55.21144179903811</v>
+        <v>148.2098144506624</v>
       </c>
       <c r="P9" t="n">
-        <v>24.78369982973385</v>
+        <v>175.3318063516156</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187261</v>
+        <v>58.70986471187403</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119948</v>
+        <v>131.2157214119966</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590642</v>
+        <v>148.8426441590661</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978545</v>
+        <v>150.7930102978564</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887676</v>
+        <v>123.1036752887693</v>
       </c>
       <c r="P10" t="n">
-        <v>81.5781961489544</v>
+        <v>81.57819614895588</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224318</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683835</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396443</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193538</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790297</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2578100.123555652</v>
+        <v>2579860.653858439</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9128941.641500216</v>
+        <v>9128941.641500214</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>18.92112911249623</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -709,19 +709,19 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.710907708664852</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,56 +737,56 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>29.89427490705984</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="X3" t="n">
-        <v>33.93991247395533</v>
+        <v>29.89427490705985</v>
       </c>
       <c r="Y3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,46 +828,46 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.89427490705984</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="G4" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="H4" t="n">
+        <v>29.89427490705985</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>18.73217250539946</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0180752910075</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G5" t="n">
-        <v>38.48106384277808</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -974,76 +974,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="C6" t="n">
+      <c r="W6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="D6" t="n">
+      <c r="X6" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="Y6" t="n">
         <v>33.89412103271894</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="I7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.9312926994359</v>
+        <v>175.331806351616</v>
       </c>
       <c r="F8" t="n">
-        <v>175.3318063516156</v>
+        <v>103.8906041928237</v>
       </c>
       <c r="G8" t="n">
-        <v>175.3318063516156</v>
+        <v>175.331806351616</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.570932793333</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589334971</v>
+        <v>52.26183589334947</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>173.6116212999461</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>57.55981668761207</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1220,7 +1220,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>48.67171349314415</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.3318063516156</v>
+        <v>175.331806351616</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.489621137986</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068408</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.84456566386723</v>
+        <v>27.79734426348775</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>175.331806351616</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.5327544760624</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>103.8784673763403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>26.07046444232026</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.5041944721331</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.65140663107579</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>91.89996056624759</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>130.1208074460232</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>86.62626738629423</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1686991936192</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>179.8615250417379</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>29.959001240238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428162</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4033,13 +4033,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5078095423594</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189018</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.44577852554302</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="C2" t="n">
-        <v>63.44577852554302</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="D2" t="n">
-        <v>63.44577852554302</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44577852554302</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F2" t="n">
-        <v>56.50027777633954</v>
+        <v>25.96592952857138</v>
       </c>
       <c r="G2" t="n">
-        <v>41.13641777246947</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="H2" t="n">
-        <v>41.13641777246947</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="I2" t="n">
         <v>6.853677899787311</v>
@@ -4336,16 +4336,16 @@
         <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>68.55862319738975</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="M2" t="n">
-        <v>68.55862319738975</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="N2" t="n">
-        <v>68.55862319738975</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="O2" t="n">
-        <v>102.1591365466055</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4357,25 +4357,25 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="T2" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="U2" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="V2" t="n">
         <v>67.19417015045701</v>
       </c>
-      <c r="T2" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="U2" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="V2" t="n">
-        <v>63.44577852554302</v>
-      </c>
       <c r="W2" t="n">
-        <v>63.44577852554302</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="X2" t="n">
-        <v>63.44577852554302</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="Y2" t="n">
-        <v>63.44577852554302</v>
+        <v>32.91143027777485</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>2.715192997916426</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K3" t="n">
-        <v>2.715192997916426</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="L3" t="n">
-        <v>2.715192997916426</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="M3" t="n">
-        <v>2.715192997916426</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="N3" t="n">
-        <v>34.95810984817397</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="O3" t="n">
-        <v>68.55862319738975</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="P3" t="n">
         <v>102.1591365466055</v>
@@ -4433,28 +4433,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S3" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T3" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U3" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V3" t="n">
-        <v>105.5634126159629</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W3" t="n">
-        <v>105.5634126159629</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="X3" t="n">
-        <v>71.28067274328075</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
     </row>
     <row r="4">
@@ -4476,10 +4476,10 @@
         <v>101.4769100231392</v>
       </c>
       <c r="F4" t="n">
-        <v>71.28067274328075</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="G4" t="n">
-        <v>36.99793287059858</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="H4" t="n">
         <v>2.715192997916426</v>
@@ -4509,10 +4509,10 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S4" t="n">
         <v>101.4769100231392</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.18473245640914</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="C5" t="n">
-        <v>76.18473245640914</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="D5" t="n">
-        <v>48.89374731397731</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="E5" t="n">
-        <v>48.89374731397731</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="F5" t="n">
-        <v>41.94824656477385</v>
+        <v>18.39358462996717</v>
       </c>
       <c r="G5" t="n">
         <v>3.078485107422247</v>
@@ -4570,7 +4570,7 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
         <v>41.17473831177255</v>
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="C6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D6" t="n">
         <v>3.078485107422247</v>
@@ -4646,52 +4646,52 @@
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>9.385105424419159</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>47.48135862876946</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="L6" t="n">
-        <v>47.48135862876946</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="M6" t="n">
-        <v>85.57761183311976</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N6" t="n">
-        <v>115.828002166762</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="O6" t="n">
-        <v>115.828002166762</v>
+        <v>117.3672447204732</v>
       </c>
       <c r="P6" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="V6" t="n">
         <v>115.0544939137607</v>
       </c>
       <c r="W6" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X6" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C7" t="n">
-        <v>153.9242553711123</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="D7" t="n">
-        <v>153.9242553711123</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="E7" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F7" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="G7" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="H7" t="n">
-        <v>76.18473245640914</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="I7" t="n">
-        <v>57.03132802508901</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4746,31 +4746,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="C8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="D8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="E8" t="n">
-        <v>520.3240652117295</v>
+        <v>296.0693834419068</v>
       </c>
       <c r="F8" t="n">
-        <v>343.2212305131278</v>
+        <v>191.1293792067313</v>
       </c>
       <c r="G8" t="n">
-        <v>166.1183958145262</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="H8" t="n">
-        <v>166.1183958145262</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812925</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="J8" t="n">
-        <v>132.759350783734</v>
+        <v>132.7593507837343</v>
       </c>
       <c r="K8" t="n">
-        <v>132.759350783734</v>
+        <v>241.3396669969003</v>
       </c>
       <c r="L8" t="n">
-        <v>142.1083187088447</v>
+        <v>250.6886349220117</v>
       </c>
       <c r="M8" t="n">
-        <v>184.1802843229007</v>
+        <v>292.7606005360684</v>
       </c>
       <c r="N8" t="n">
-        <v>231.5468267043111</v>
+        <v>340.1271429174794</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5187644837872</v>
+        <v>371.518764483788</v>
       </c>
       <c r="P8" t="n">
-        <v>545.0972527718867</v>
+        <v>545.0972527718878</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808567</v>
+        <v>648.5374921808584</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="T8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="U8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="V8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="W8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="X8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
       <c r="Y8" t="n">
-        <v>648.5374921808567</v>
+        <v>473.1722181405088</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.1118883863944</v>
+        <v>643.185996429078</v>
       </c>
       <c r="C9" t="n">
-        <v>358.6588591052674</v>
+        <v>468.7329671479511</v>
       </c>
       <c r="D9" t="n">
-        <v>209.7244494440162</v>
+        <v>319.7985574866998</v>
       </c>
       <c r="E9" t="n">
         <v>160.5611024812443</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812925</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812925</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812925</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812925</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02654450812925</v>
+        <v>91.04961084172338</v>
       </c>
       <c r="K9" t="n">
-        <v>187.6050327962287</v>
+        <v>255.1375588898929</v>
       </c>
       <c r="L9" t="n">
-        <v>229.1473663241527</v>
+        <v>296.6798924178173</v>
       </c>
       <c r="M9" t="n">
-        <v>296.9821782982209</v>
+        <v>364.514704391886</v>
       </c>
       <c r="N9" t="n">
-        <v>381.0210208122073</v>
+        <v>448.5535469058728</v>
       </c>
       <c r="O9" t="n">
-        <v>527.748737118363</v>
+        <v>503.2128742869245</v>
       </c>
       <c r="P9" t="n">
-        <v>701.3272254064625</v>
+        <v>527.7487371183641</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="R9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="S9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="T9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="U9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="V9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="W9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="X9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.2500819564798</v>
+        <v>161.9396380905224</v>
       </c>
       <c r="C10" t="n">
-        <v>342.3138990285729</v>
+        <v>161.9396380905224</v>
       </c>
       <c r="D10" t="n">
-        <v>342.3138990285729</v>
+        <v>161.9396380905224</v>
       </c>
       <c r="E10" t="n">
-        <v>194.4008054461798</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="F10" t="n">
-        <v>194.4008054461798</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="G10" t="n">
-        <v>194.4008054461798</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="H10" t="n">
-        <v>194.4008054461798</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="I10" t="n">
-        <v>58.55270328659802</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812925</v>
+        <v>14.02654450812928</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288453</v>
+        <v>72.14931057288487</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707613</v>
+        <v>202.0528747707618</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882367</v>
+        <v>349.4070924882375</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831146</v>
+        <v>498.6921726831156</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189962</v>
+        <v>620.5648112189974</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064625</v>
+        <v>701.327225406464</v>
       </c>
       <c r="Q10" t="n">
-        <v>688.3529166550815</v>
+        <v>673.2490998877895</v>
       </c>
       <c r="R10" t="n">
-        <v>688.3529166550815</v>
+        <v>673.2490998877895</v>
       </c>
       <c r="S10" t="n">
-        <v>688.3529166550815</v>
+        <v>673.2490998877895</v>
       </c>
       <c r="T10" t="n">
-        <v>688.3529166550815</v>
+        <v>673.2490998877895</v>
       </c>
       <c r="U10" t="n">
-        <v>688.3529166550815</v>
+        <v>673.2490998877895</v>
       </c>
       <c r="V10" t="n">
-        <v>688.3529166550815</v>
+        <v>673.2490998877895</v>
       </c>
       <c r="W10" t="n">
-        <v>688.3529166550815</v>
+        <v>673.2490998877895</v>
       </c>
       <c r="X10" t="n">
-        <v>688.3529166550815</v>
+        <v>496.1462651891875</v>
       </c>
       <c r="Y10" t="n">
-        <v>688.3529166550815</v>
+        <v>339.0424727891244</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2420.62928111327</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.774446768175</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,22 +5515,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5664,10 +5664,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>738.560493261518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>590.6473996791249</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>443.7574521812145</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>276.5613528960944</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
         <v>402.7245934908939</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>481.447947124485</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6785,10 +6785,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7022,10 +7022,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7174,28 +7174,28 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398595</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F40" t="n">
-        <v>198.027470314254</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797191</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797191</v>
@@ -7411,16 +7411,16 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355939</v>
@@ -7441,22 +7441,22 @@
         <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797191</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7657,7 +7657,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355939</v>
@@ -7681,16 +7681,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706077</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427008</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797191</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797191</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.8463580632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085243</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879356</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443776</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008474</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>253.7352816144805</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>246.8450950403531</v>
       </c>
       <c r="O2" t="n">
-        <v>248.4501999472249</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>251.8689757786171</v>
+        <v>250.4976661837099</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>156.4449627930514</v>
       </c>
       <c r="M3" t="n">
         <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>151.0360642081934</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
         <v>164.7587326673596</v>
       </c>
       <c r="P3" t="n">
-        <v>158.4618986107626</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>167.6029932607663</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>252.0299206180583</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
         <v>205.6249188705004</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>164.1585617237782</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
         <v>122.1984598562864</v>
@@ -8306,16 +8306,16 @@
         <v>161.5285106728731</v>
       </c>
       <c r="N6" t="n">
-        <v>142.3059096569611</v>
+        <v>150.2310236677773</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>163.154682530332</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>156.5161935423116</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43379383386346</v>
+        <v>132.110880917869</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>109.6770870840083</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>183.1186529404482</v>
+        <v>183.118652940448</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28995823576851</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>178.9227690890136</v>
+        <v>169.3363648062557</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>92.99837265162077</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>150.548106521879</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.85618372286008</v>
+        <v>209.1879900744758</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>2.273736754432321e-12</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.30478226780143</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.6433062151481</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>18.49466557218918</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>62.35543909864961</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>45.84813034729927</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393074</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>12.10766347585297</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823151</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>812640.6503809313</v>
+        <v>812640.6503809312</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26371,10 +26371,10 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.402600368</v>
+        <v>343539.4026003689</v>
       </c>
       <c r="E3" t="n">
-        <v>1086298.016192723</v>
+        <v>1086298.016192722</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.6912723042</v>
+        <v>34635.6912723043</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575368</v>
+        <v>248550.2087575367</v>
       </c>
       <c r="N3" t="n">
         <v>1.11379904410569e-10</v>
@@ -26423,7 +26423,7 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712351</v>
+        <v>305665.7657712349</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26453,10 +26453,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
+        <v>8117.312426732029</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.31242673203</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426732029</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426732029</v>
@@ -26475,7 +26475,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.9356668597</v>
+        <v>52713.93566685974</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186829.7041525767</v>
+        <v>186829.7041525768</v>
       </c>
       <c r="C6" t="n">
-        <v>210643.8346116866</v>
+        <v>210643.8346116868</v>
       </c>
       <c r="D6" t="n">
-        <v>-45085.68814703603</v>
+        <v>-45085.68814703666</v>
       </c>
       <c r="E6" t="n">
-        <v>-550167.9579457144</v>
+        <v>-549855.316616792</v>
       </c>
       <c r="F6" t="n">
-        <v>536130.0582470088</v>
+        <v>536442.69957593</v>
       </c>
       <c r="G6" t="n">
-        <v>536130.0582470089</v>
+        <v>536442.6995759305</v>
       </c>
       <c r="H6" t="n">
-        <v>536130.0582470092</v>
+        <v>536442.6995759305</v>
       </c>
       <c r="I6" t="n">
-        <v>536130.0582470088</v>
+        <v>536442.6995759305</v>
       </c>
       <c r="J6" t="n">
-        <v>527249.8837876735</v>
+        <v>527562.525116595</v>
       </c>
       <c r="K6" t="n">
-        <v>534961.3112015181</v>
+        <v>535273.9525304394</v>
       </c>
       <c r="L6" t="n">
-        <v>501494.366974705</v>
+        <v>501807.0083036259</v>
       </c>
       <c r="M6" t="n">
-        <v>287579.8494894723</v>
+        <v>287892.4908183936</v>
       </c>
       <c r="N6" t="n">
-        <v>536130.0582470087</v>
+        <v>536442.6995759299</v>
       </c>
       <c r="O6" t="n">
-        <v>536130.0582470086</v>
+        <v>536442.69957593</v>
       </c>
       <c r="P6" t="n">
-        <v>536130.0582470088</v>
+        <v>536442.6995759301</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523609</v>
+        <v>386.5211853523618</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516156</v>
+        <v>175.331806351616</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332355</v>
+        <v>351.4999246332365</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893129</v>
+        <v>981.4543149893119</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088375</v>
+        <v>136.8507425088379</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480328</v>
+        <v>997.3764817480323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088375</v>
+        <v>136.8507425088379</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480328</v>
+        <v>997.3764817480323</v>
       </c>
       <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27263,10 +27263,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088375</v>
+        <v>136.8507425088379</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480328</v>
+        <v>997.3764817480323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>396.2890922913351</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>172.9692497154156</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>172.9719462259575</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27438,10 +27438,10 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>324.04135076147</v>
+        <v>293.8123459961796</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>315.3010562434577</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.593271175912</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>67.19018711997774</v>
+        <v>63.14454955308224</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27517,16 +27517,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>198.8606746754699</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>217.7550706869643</v>
       </c>
       <c r="X3" t="n">
-        <v>171.8330727295221</v>
+        <v>175.8787102964176</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.742783303349</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>115.5267731158714</v>
+        <v>111.4811355489759</v>
       </c>
       <c r="G4" t="n">
         <v>134.0095673419535</v>
       </c>
       <c r="H4" t="n">
-        <v>127.9182913733583</v>
+        <v>131.9639289402539</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>48.74710999203386</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>189.3534617169419</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>364.0016691580811</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>327.6649663296755</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>368.3949818989333</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>376.6808846845414</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.0521198070892</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>134.2274351455376</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>113.5509445319198</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.99978005760148</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27754,16 +27754,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>213.2139193181415</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>167.2919213606994</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>171.7885747445854</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.3509163391592</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>128.7657572558497</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>107.9528988037911</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>106.9399841801532</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>142.7038137108703</v>
       </c>
       <c r="I7" t="n">
-        <v>134.589418795024</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4131925917203</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>254.9990773728258</v>
+        <v>206.5985637206458</v>
       </c>
       <c r="F8" t="n">
-        <v>231.5442393900958</v>
+        <v>302.9854415488878</v>
       </c>
       <c r="G8" t="n">
-        <v>238.4170771520527</v>
+        <v>238.4170771520523</v>
       </c>
       <c r="H8" t="n">
-        <v>323.5613947208331</v>
+        <v>323.561394720833</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.5709327933328</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>173.6116212999461</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2938536289356</v>
+        <v>216.2938536289355</v>
       </c>
       <c r="U8" t="n">
         <v>251.2213445869191</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>108.9733669622553</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>108.9733669622568</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767891</v>
+        <v>60.77218657767884</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671839</v>
+        <v>48.53902377671826</v>
       </c>
       <c r="S9" t="n">
         <v>156.2405558211279</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.500173830321671</v>
+        <v>4.500173830321302</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.0301607160525</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.4896211379859</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.08089719068396</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.95277859962066</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>145.9534932992551</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>50.37784903742116</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.05189887603237</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466776</v>
+        <v>1.55385401146678</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493413</v>
+        <v>15.91340739493416</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707295</v>
+        <v>59.9049567770731</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057284</v>
+        <v>131.8814169057287</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111171</v>
+        <v>197.6560572111176</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145435</v>
+        <v>245.2098169145441</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909657</v>
+        <v>272.8431681909664</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010458</v>
+        <v>277.2580559010465</v>
       </c>
       <c r="O8" t="n">
-        <v>261.806920074523</v>
+        <v>261.8069200745236</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664369</v>
+        <v>223.4461491664375</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.798752380783</v>
+        <v>167.7987523807834</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779997</v>
+        <v>97.60728204780021</v>
       </c>
       <c r="S8" t="n">
-        <v>35.4084482862992</v>
+        <v>35.40844828629929</v>
       </c>
       <c r="T8" t="n">
-        <v>6.801995935195817</v>
+        <v>6.801995935195833</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173421</v>
+        <v>0.1243083209173424</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352668</v>
+        <v>0.8313851911352689</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753763</v>
+        <v>8.029430661753782</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373617</v>
+        <v>28.62444627373624</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089818</v>
+        <v>78.54766843089837</v>
       </c>
       <c r="K9" t="n">
-        <v>134.250476236961</v>
+        <v>134.2504762369614</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383833</v>
+        <v>180.5163328383837</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170366</v>
+        <v>210.6540460170372</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944306</v>
+        <v>216.2294317944312</v>
       </c>
       <c r="O9" t="n">
-        <v>197.807686243486</v>
+        <v>197.8076862434865</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440669</v>
+        <v>158.7581072440673</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631614</v>
+        <v>106.1255903631617</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592475</v>
+        <v>51.61881037592487</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270988</v>
+        <v>15.44261528270992</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479429</v>
+        <v>3.351065748479438</v>
       </c>
       <c r="U9" t="n">
-        <v>0.054696394153636</v>
+        <v>0.05469639415363613</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091752</v>
+        <v>0.697005416209177</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791387036</v>
+        <v>6.197011791387051</v>
       </c>
       <c r="I10" t="n">
-        <v>20.9608537892723</v>
+        <v>20.96085378927235</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598869</v>
+        <v>49.27828292598881</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775689</v>
+        <v>80.9793565377571</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516805</v>
+        <v>103.6256961516808</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972255</v>
+        <v>109.2587671972258</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186278</v>
+        <v>106.660837918628</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472965</v>
+        <v>98.51854737472989</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406239</v>
+        <v>84.29963688406261</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820649</v>
+        <v>58.36469898820663</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791436</v>
+        <v>31.33989807791444</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066353</v>
+        <v>12.14690348066356</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075566</v>
+        <v>2.978114051075574</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777324</v>
+        <v>0.03801847724777334</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32314,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33505,13 +33505,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33742,13 +33742,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34704,19 +34704,19 @@
         <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="O2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>28.63848405005938</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="P3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>33.93991247395533</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="N6" t="n">
-        <v>30.55594983196189</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="Q6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511159</v>
+        <v>119.9321275511162</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>109.6770870840061</v>
       </c>
       <c r="L8" t="n">
-        <v>9.443401944556257</v>
+        <v>9.443401944556882</v>
       </c>
       <c r="M8" t="n">
-        <v>42.49693496369301</v>
+        <v>42.49693496369369</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230445488</v>
+        <v>47.84499230445556</v>
       </c>
       <c r="O8" t="n">
-        <v>141.3857957368446</v>
+        <v>31.70870865283692</v>
       </c>
       <c r="P8" t="n">
-        <v>175.3318063516156</v>
+        <v>175.331806351616</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.8080531662382</v>
+        <v>157.8080531662386</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>77.80107710464051</v>
       </c>
       <c r="K9" t="n">
-        <v>175.3318063516156</v>
+        <v>165.7454020688581</v>
       </c>
       <c r="L9" t="n">
-        <v>41.9619530585091</v>
+        <v>41.96195305850955</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501833</v>
+        <v>68.52001209501887</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109733</v>
+        <v>84.88771971109787</v>
       </c>
       <c r="O9" t="n">
-        <v>148.2098144506624</v>
+        <v>55.21144179904209</v>
       </c>
       <c r="P9" t="n">
-        <v>175.3318063516156</v>
+        <v>24.78369982973703</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>175.331806351616</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187403</v>
+        <v>58.70986471187425</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119966</v>
+        <v>131.2157214119969</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590661</v>
+        <v>148.8426441590664</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978564</v>
+        <v>150.7930102978567</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887693</v>
+        <v>123.1036752887696</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895588</v>
+        <v>81.5781961489561</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396443</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193538</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790297</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193538</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
